--- a/Week3/Summary.xlsx
+++ b/Week3/Summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzba\Dropbox\IoT\Hands-On\Hands-on 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaniv\FullStackIITC\MyRepos\IOT_SMART_HOME\Week3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6D7FD8-D121-43E4-9089-EE9DD10EB97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,17 +45,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,8 +77,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,19 +106,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="חישוב" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -119,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא של Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -265,7 +298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,28 +440,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.05078125" customWidth="1"/>
-    <col min="3" max="3" width="13.578125" customWidth="1"/>
-    <col min="6" max="6" width="20.578125" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -445,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
@@ -458,9 +491,11 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
@@ -473,9 +508,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
@@ -488,9 +525,11 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
@@ -503,9 +542,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="b">
         <v>0</v>
       </c>
@@ -518,9 +559,11 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="b">
         <v>0</v>
       </c>
@@ -533,9 +576,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="b">
         <v>0</v>
       </c>
@@ -548,9 +593,11 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="b">
         <v>0</v>
       </c>
@@ -563,9 +610,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="b">
         <v>1</v>
       </c>
@@ -578,9 +627,11 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
@@ -593,9 +644,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="b">
         <v>1</v>
       </c>
@@ -608,9 +661,11 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="b">
         <v>1</v>
       </c>
@@ -623,9 +678,11 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="b">
         <v>0</v>
       </c>
@@ -638,9 +695,11 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="b">
         <v>0</v>
       </c>
@@ -653,9 +712,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="b">
         <v>0</v>
       </c>
@@ -668,9 +729,11 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="b">
         <v>0</v>
       </c>
@@ -683,7 +746,9 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
